--- a/data/Inventry.xlsx
+++ b/data/Inventry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,24 +461,34 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Inverter Qty</t>
+          <t>Battery Company</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Battery Company</t>
+          <t>Rails</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Battery Qty</t>
+          <t>Clamps</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Disconnects</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Conduits</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SolarEdge Pro 400W</t>
+          <t>Hanwa Cell</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -486,143 +496,199 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SolarEdge P650</t>
+          <t>SOLAREDGE U650 POWER OPTIMIZER</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SolarEdge SE7600H</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>SOLAREDGE USE3800H-USMNBL75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>SOLAREDGE ENERGY BANK BAT-10K1P</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tesla Powerwall 2</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>UNIRAC UNIVERSAL SOLARHOOKS CT 5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NXT UMOUNT COMBO CLAMP</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>EATON DG221URB</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>3/4" EMT</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Enphase IQ7+ Panel</t>
+          <t>Maxeon 7 Series</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Enphase IQ7+</t>
+          <t>SolarEdge P-Series</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Enphase IQ7X</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>Enphase IQ7+ / IQ7A Microinverters</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tesla Powerwall 2</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Enphase Encharge 10</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>IronRidge</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NXT UMOUNT™ COMBO CLAMP</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Eaton DH Series</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Schedule 40</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tesla Solar Panel</t>
+          <t>Q.TRON BLK M-G2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tesla Optimizer</t>
+          <t>SolarEdge S-Series</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Tesla Inverter</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>Enphase IQ8 Series</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tesla Powerwall 3</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tesla Powerwall 3</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+          <t>IronRidge XR Rail</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SolarMount® Clamps</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>HU36X Series</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Schedule 80</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Canadian Solar 450W</t>
+          <t>TOPHiKu6 Series</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SolarEdge P730</t>
+          <t>Tigo TS4-A-S</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SolarEdge SE10000H</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>SolarEdge HD-Wave Inverter</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Enphase IQ Battery 3</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>LG RESU 10H</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
+          <t>Dome 6.1 / S-Dome 6.1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>IronRidge Universal End Clamps</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DC Switch Disconnectors</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3/4" EMT</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LG NeON R 365W</t>
+          <t>HiHero Series</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Enphase IQ8+</t>
+          <t>Tigo TS4-X Series</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -630,19 +696,273 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Enphase IQ8M</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>Sunny Boy 3.0-US</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Enphase IQ Battery 5P</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Enphase Encharge 3</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>RockIt Rail-Less System</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SnapNrack Universal Mid Clamps</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>HU36X Series</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Schedule 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HiHero Series</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Huawei SUN2000-450W-P2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sungrow SG-RS Series</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>LG RESU 10H</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>IronRidge</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SnapNrack Universal End Clamps</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Eaton DH Series</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Schedule 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Alpha Pure Series</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Huawei SUN2000-600W-P</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>23</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sungrow SGxxCX Series</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LG RESU Prime 16H</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SnapNrack Series 100 Rail</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>OneMid / OneEnd Clamps</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>EATON DG221URB</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3/4" EMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tiger Pro Series</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>34</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Enphase IQ7+ / IQ7A</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>15</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Growatt MOD TL3-X Series</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SolarEdge Home Battery</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>UNIRAC UNIVERSAL SOLARHOOKS CT 5</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>SnapNrack Universal Mid Clamps</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>HU36X Series</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>3/4" EMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>DeepBlue 4.0 X</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Huawei SUN2000-600W-P</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>65</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sunny Boy 3.0-US</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Enphase IQ Battery 5P</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SnapNrack Series 100 Rail</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>OneMid / OneEnd Clamps</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>HU36X Series</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Schedule 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q.TRON BLK M-G2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SolarEdge S-Series</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Enphase IQ8 Series</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tesla Powerwall 3</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>IronRidge XR Rail</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>SolarMount® Clamps</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>HU36X Series</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>3/4" EMT</t>
+        </is>
       </c>
     </row>
   </sheetData>
